--- a/ConceptMap-R5-SupplyDelivery-elements-for-R4-SupplyDelivery.xlsx
+++ b/ConceptMap-R5-SupplyDelivery-elements-for-R4-SupplyDelivery.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:34.5739523-06:00</t>
+    <t>2026-02-09T22:05:44.2778847-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -177,9 +177,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/SupplyDelivery#SupplyDelivery.basedOn</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SupplyDelivery.basedOn</t>
-  </si>
-  <si>
     <t>SupplyDelivery.partOf</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/SupplyDelivery#SupplyDelivery.partOf</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SupplyDelivery.partOf</t>
-  </si>
-  <si>
     <t>SupplyDelivery.status</t>
   </si>
   <si>
@@ -237,9 +231,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/SupplyDelivery#SupplyDelivery.suppliedItem.quantity</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/SupplyDelivery#SupplyDelivery.quantity</t>
-  </si>
-  <si>
     <t>SupplyDelivery.suppliedItem.item[x]</t>
   </si>
   <si>
@@ -249,9 +240,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/SupplyDelivery#SupplyDelivery.suppliedItem.item[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SupplyDelivery.suppliedItem.item</t>
-  </si>
-  <si>
     <t>SupplyDelivery.occurrence[x]</t>
   </si>
   <si>
@@ -259,9 +247,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/SupplyDelivery#SupplyDelivery.occurrence[x]</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/SupplyDelivery#SupplyDelivery.whenPrepared</t>
   </si>
   <si>
     <t>SupplyDelivery.supplier</t>
@@ -545,7 +530,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -689,211 +674,146 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="E26" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-SupplyDelivery-elements-for-R4-SupplyDelivery.xlsx
+++ b/ConceptMap-R5-SupplyDelivery-elements-for-R4-SupplyDelivery.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.2778847-06:00</t>
+    <t>2026-02-17T14:42:27.6121268-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
